--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2124044.193161891</v>
+        <v>2118322.581194007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>53.18118391257265</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>256.6027589036968</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>270.1069982412244</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>43.31785343914007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.86960449555643</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571657</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>167.5379522906096</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>54.70995144023269</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>30.60408762095456</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>39.77808571121579</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>20.03427690098606</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>108.8314371278621</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>84.82420463792828</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>122.4179473152587</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>11.24403372791123</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>111.2527235042584</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>152.0655407260571</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.74235877384921</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>15.44847849679241</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>132.0538998985145</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>93.34984542791987</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>122.4179473152587</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>59.90320919298944</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>244.3800199733212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>1743.361901372331</v>
       </c>
       <c r="D2" t="n">
-        <v>764.6872557005402</v>
+        <v>1385.096202765581</v>
       </c>
       <c r="E2" t="n">
-        <v>378.8990031022959</v>
+        <v>999.3079501673367</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>588.3220453777292</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1837.140060718709</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1468.177543778297</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1109.911845171546</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>724.1235925733022</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>313.1376877836946</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656315</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656315</v>
+        <v>2189.908715988823</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656315</v>
+        <v>1837.140060718709</v>
       </c>
       <c r="X5" t="n">
-        <v>2170.551953897502</v>
+        <v>1837.140060718709</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1837.140060718709</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552.8413109986425</v>
+        <v>97.69838933464737</v>
       </c>
       <c r="C7" t="n">
-        <v>552.8413109986425</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>552.8413109986425</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162494</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>700.9879695644585</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>552.8413109986425</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>552.8413109986425</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>552.8413109986425</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>552.8413109986425</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>552.8413109986425</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>552.8413109986425</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>552.8413109986425</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.8413109986425</v>
+        <v>279.3468541648871</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>1194.175505447096</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>825.212988506684</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>466.9472898999335</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>81.1590373016893</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519315</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.649771680316</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>302.7751770479795</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>529.7758821321497</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>379.659242719814</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>231.7461491374208</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>84.85620163951049</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>84.85620163951049</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>84.85620163951049</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>84.85620163951049</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
@@ -4974,40 +4974,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782192</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782192</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782192</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782192</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782192</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782192</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782192</v>
+        <v>698.7120650600566</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5038,37 +5038,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.97444730184</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5077,16 +5077,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>135.7409190051781</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>135.7409190051781</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>135.7409190051781</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5275,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>409.9279581472591</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>262.014864564866</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>262.014864564866</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5466,22 +5466,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.658977898817</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.241807861856</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X16" t="n">
-        <v>1302.311063288258</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="17">
@@ -5494,52 +5494,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.613856788637</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>245.6776738607301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5703,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.146109903272</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1334.461621697385</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.044451660424</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>817.0549007624069</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.2623216188767</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5749,37 +5749,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075804</v>
+        <v>4074.966626751958</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4469.740993109136</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4718.027354864818</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>884.577891690201</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C25" t="n">
-        <v>715.6417087622941</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1355.643526557401</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1066.226356520441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1066.226356520441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y25" t="n">
-        <v>1066.226356520441</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6232,13 +6232,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>472.9660366434699</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>305.2632000181889</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>619.8559841413803</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>619.8559841413803</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,25 +6463,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>444.6760255082862</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1099.399357643586</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L29" t="n">
-        <v>1963.91817329694</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M29" t="n">
-        <v>2497.450077968865</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N29" t="n">
-        <v>3044.228895027647</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862918</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7120416113839</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>789.7120416113839</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>639.5954021990482</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>639.5954021990482</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>492.7054547011378</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1420.142636483171</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.142636483171</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.153085585154</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.3605064416237</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.596327402151</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>999.1036114208126</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>771.1140605227953</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>550.3214813792652</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6952,37 +6952,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320243</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.1131475839754</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1769646560685</v>
+        <v>425.7583423057196</v>
       </c>
       <c r="D37" t="n">
-        <v>411.1769646560685</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.955688429437</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1533.85282155508</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1279.168333349193</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W37" t="n">
-        <v>989.7511633122325</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X37" t="n">
-        <v>761.7616124142152</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7616124142152</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364129</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>673.3827746590077</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>504.4465917311009</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>504.4465917311009</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570251</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590077</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>673.3827746590077</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,19 +7396,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7429,34 +7429,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.811212990069</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C43" t="n">
-        <v>612.8750300621621</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D43" t="n">
-        <v>462.7583906498263</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7583906498263</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
-        <v>462.7583906498263</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,19 +7602,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104704</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V43" t="n">
-        <v>1701.658977898817</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W43" t="n">
-        <v>1412.241807861856</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.252256963839</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.4596778203087</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,43 +7633,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364126</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193955</v>
       </c>
       <c r="N44" t="n">
-        <v>3316.966490094645</v>
+        <v>3196.009277420601</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,7 +7757,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7766,7 +7766,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.5338801960603</v>
+        <v>492.7083461157131</v>
       </c>
       <c r="C46" t="n">
-        <v>559.5976972681534</v>
+        <v>323.7721631878062</v>
       </c>
       <c r="D46" t="n">
-        <v>409.4810578558177</v>
+        <v>323.7721631878062</v>
       </c>
       <c r="E46" t="n">
-        <v>409.4810578558177</v>
+        <v>323.7721631878062</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>323.7721631878062</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>156.0693265625252</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7839,19 +7839,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1667.240599230348</v>
       </c>
       <c r="V46" t="n">
-        <v>1420.392094206791</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1130.97492416983</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.97492416983</v>
+        <v>895.1493900894829</v>
       </c>
       <c r="Y46" t="n">
-        <v>910.1823450263</v>
+        <v>674.3568109459528</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,25 +8692,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>103.7862464855135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>198.7154374299955</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>1.017475755656747</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>161.8544041422892</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>272.882861657588</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277278</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>258.6211785616921</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>104.976929203105</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>145.9915313580422</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>116.8782182611751</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>201.3876335676846</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>24.01601533131047</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>137.3714392903011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>33.5022914100624</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>13.96026753297116</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.0896214080881</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>133.16699452142</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>87.49504937765465</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>53.0841172186493</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>43.60786094376952</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>84.85180572133135</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>7.757623350506833</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="E2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="F2" t="n">
         <v>555914.5016417764</v>
       </c>
-      <c r="F2" t="n">
-        <v>555914.5016417763</v>
-      </c>
       <c r="G2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="H2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="I2" t="n">
         <v>555914.5016417766</v>
@@ -26340,22 +26340,22 @@
         <v>555914.5016417766</v>
       </c>
       <c r="K2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="L2" t="n">
         <v>555914.5016417763</v>
       </c>
-      <c r="L2" t="n">
-        <v>555914.5016417765</v>
-      </c>
       <c r="M2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="N2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="O2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="P2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417763</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26426,16 +26426,16 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
@@ -26447,19 +26447,19 @@
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="N4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290304.3147653848</v>
+        <v>-290304.3147653847</v>
       </c>
       <c r="C6" t="n">
-        <v>299663.5644491594</v>
+        <v>299663.56444916</v>
       </c>
       <c r="D6" t="n">
-        <v>299663.5644491594</v>
+        <v>299663.5644491596</v>
       </c>
       <c r="E6" t="n">
-        <v>-289466.0386024357</v>
+        <v>-290137.9935046934</v>
       </c>
       <c r="F6" t="n">
-        <v>437911.3753909708</v>
+        <v>437239.420488713</v>
       </c>
       <c r="G6" t="n">
-        <v>437911.3753909708</v>
+        <v>437239.420488713</v>
       </c>
       <c r="H6" t="n">
-        <v>437911.375390971</v>
+        <v>437239.4204887131</v>
       </c>
       <c r="I6" t="n">
-        <v>437911.3753909712</v>
+        <v>437239.4204887132</v>
       </c>
       <c r="J6" t="n">
-        <v>261488.1561983781</v>
+        <v>260816.2012961203</v>
       </c>
       <c r="K6" t="n">
-        <v>437911.3753909708</v>
+        <v>437239.420488713</v>
       </c>
       <c r="L6" t="n">
-        <v>437911.375390971</v>
+        <v>437239.4204887129</v>
       </c>
       <c r="M6" t="n">
-        <v>308269.0605520261</v>
+        <v>307597.1056497685</v>
       </c>
       <c r="N6" t="n">
-        <v>437911.3753909711</v>
+        <v>437239.4204887133</v>
       </c>
       <c r="O6" t="n">
-        <v>437911.3753909709</v>
+        <v>437239.4204887129</v>
       </c>
       <c r="P6" t="n">
-        <v>437911.3753909709</v>
+        <v>437239.4204887128</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170869</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26962,46 +26962,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>712.0330363762114</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>712.0330363762115</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>360.6029861082224</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.83197231642228</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>157.1814111170982</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>99.62410243724463</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594878</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.253145459357835</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359948</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.699986365444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>112.5368696583951</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.59587156758241</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-4.097520389930406e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31281,10 +31281,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,31 +31293,31 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472037</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478008</v>
@@ -31378,7 +31378,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923048</v>
@@ -31387,19 +31387,19 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31533,28 +31533,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,16 +31676,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,19 +31694,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,10 +33739,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492238</v>
@@ -34953,7 +34953,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.997506289869</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35190,7 +35190,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624588</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713858</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>502.5482327048853</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35658,10 +35658,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.017272842907</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>60.63067429788153</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>352.6414051110018</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>470.4443441954251</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>780.9358625458071</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200601</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>766.6741794499112</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2118322.581194007</v>
+        <v>2121728.072318455</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>53.18118391257265</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186253</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>256.6027589036968</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>88.85332002005299</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>43.31785343914007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>14.19510348422541</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571657</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>150.8400357509144</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686225</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.60408762095456</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>1.487860919361556</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>39.77808571121579</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15.11174121957035</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.03427690098606</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>69.96969900783307</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247655</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>122.4179473152587</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>111.9187566128689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247655</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.6807114390482</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.4425172951286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>192.7860573675486</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>15.44847849679241</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3483,7 +3483,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492406</v>
+        <v>17.25588147840459</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>201.360032484281</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>182.1017944452676</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.92093637964086</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>59.90320919298944</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1743.361901372331</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1385.096202765581</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>999.3079501673367</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>588.3220453777292</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969933</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1837.140060718709</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>1468.177543778297</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1109.911845171546</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>724.1235925733022</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>313.1376877836946</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2607.398262715138</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2607.398262715138</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2607.398262715138</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988823</v>
+        <v>2276.335375371567</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718709</v>
+        <v>1923.566720101453</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.140060718709</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="Y5" t="n">
-        <v>1837.140060718709</v>
+        <v>1550.100961840373</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N6" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464737</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.712065060056</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084172</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648871</v>
+        <v>235.5914466506041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447096</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="C8" t="n">
-        <v>825.212988506684</v>
+        <v>1375.269914352047</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999335</v>
+        <v>1017.004215745297</v>
       </c>
       <c r="E8" t="n">
-        <v>81.1590373016893</v>
+        <v>631.2159631470522</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>220.2300583574446</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>206.3066542960356</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>206.3066542960356</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>2130.83227135658</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600566</v>
+        <v>546.4805193761944</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321497</v>
+        <v>377.5443364482875</v>
       </c>
       <c r="D10" t="n">
-        <v>379.659242719814</v>
+        <v>227.4276970359518</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374208</v>
+        <v>79.51460345355864</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951049</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163951049</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>84.85620163951049</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>84.85620163951049</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4231.233819318589</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5071,16 +5071,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5111,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,28 +5120,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.5901955154781</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="C13" t="n">
-        <v>283.6540125875712</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>283.6540125875712</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>135.7409190051781</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>135.7409190051781</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>135.7409190051781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590082</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154781</v>
+        <v>709.6864413838516</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5281,13 +5281,13 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>1923.729615463053</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
         <v>2667.236715577531</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.0445975595949</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="C16" t="n">
-        <v>560.0445975595949</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>409.9279581472591</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>262.014864564866</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>262.014864564866</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.892362468343</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.475192431382</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X16" t="n">
-        <v>962.4856415333647</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.6930623898346</v>
+        <v>460.1767209741882</v>
       </c>
     </row>
     <row r="17">
@@ -5494,73 +5494,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5749,37 +5749,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>4074.966626751958</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4469.740993109136</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q20" t="n">
-        <v>4718.027354864818</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5797,7 +5797,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142067</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282341</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.811212990069</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>612.8750300621621</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.658977898817</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.241807861856</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.252256963839</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.4596778203087</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,43 +5974,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>506.8067350374723</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.8067350374723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1296.118160724478</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>499.6609739513384</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>331.9581373260573</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>646.5509214492488</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608906</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814245</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644074</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870721</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6703,22 +6703,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188665</v>
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6858,10 +6858,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,16 +6873,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
         <v>1780.96276986786</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,58 +6992,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>425.7583423057196</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>425.7583423057196</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>1163.957642384228</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W37" t="n">
-        <v>874.540472347267</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X37" t="n">
-        <v>646.5509214492497</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.7583423057196</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,37 +7171,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442091</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927052</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931533</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501059</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626702</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208154</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838548</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858375</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423073</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>578.4172407837245</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C43" t="n">
-        <v>409.4810578558177</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D43" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E43" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,19 +7602,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1752.949493898359</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.265005692472</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W43" t="n">
-        <v>1208.847835655512</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X43" t="n">
-        <v>980.8582847574944</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.0657056139643</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972665</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364126</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193955</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420601</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750057</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.7083461157131</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C46" t="n">
-        <v>323.7721631878062</v>
+        <v>364.2765614219295</v>
       </c>
       <c r="D46" t="n">
-        <v>323.7721631878062</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E46" t="n">
-        <v>323.7721631878062</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F46" t="n">
-        <v>323.7721631878062</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G46" t="n">
-        <v>156.0693265625252</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230348</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894829</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459528</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270191</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360596</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627892</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>63.01588120402482</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.2173930448432</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>198.715437429996</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>198.7154374299955</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>67.5366377670432</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.017475755656747</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.917311333789257e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>229.1155640189937</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,10 +9889,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.917311333789257e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>133.2530576400246</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570114</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>67.5366377670432</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.61882225792002</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>219.3344627260153</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>165.7589601792663</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.976929203105</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1350798790575</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>145.9915313580422</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>182.1679443159949</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>24.01601533131047</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>113.7908987761683</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>7.074303475272615</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.14213605696617</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>25.79859598454615</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>133.16699452142</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270132</v>
+        <v>162.5760987035327</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>84.85180572133191</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>43.60786094376954</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>123.6945366385715</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>84.85180572133135</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>915241.3155693085</v>
+        <v>915241.3155693086</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854698.4465300766</v>
+        <v>854698.4465300767</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854698.4465300766</v>
+        <v>854698.4465300767</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854698.4465300766</v>
+        <v>854698.4465300767</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854698.4465300766</v>
+        <v>854698.4465300767</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="F2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="G2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="H2" t="n">
         <v>555914.5016417764</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>555914.5016417764</v>
-      </c>
-      <c r="H2" t="n">
-        <v>555914.5016417765</v>
-      </c>
-      <c r="I2" t="n">
-        <v>555914.5016417766</v>
       </c>
       <c r="J2" t="n">
         <v>555914.5016417766</v>
       </c>
       <c r="K2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="L2" t="n">
         <v>555914.5016417764</v>
-      </c>
-      <c r="L2" t="n">
-        <v>555914.5016417763</v>
       </c>
       <c r="M2" t="n">
         <v>555914.5016417766</v>
       </c>
       <c r="N2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="O2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="P2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417765</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26505,10 +26505,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290304.3147653847</v>
+        <v>-290304.3147653848</v>
       </c>
       <c r="C6" t="n">
-        <v>299663.56444916</v>
+        <v>299663.5644491598</v>
       </c>
       <c r="D6" t="n">
-        <v>299663.5644491596</v>
+        <v>299663.5644491597</v>
       </c>
       <c r="E6" t="n">
-        <v>-290137.9935046934</v>
+        <v>-289533.2340926615</v>
       </c>
       <c r="F6" t="n">
-        <v>437239.420488713</v>
+        <v>437844.179900745</v>
       </c>
       <c r="G6" t="n">
-        <v>437239.420488713</v>
+        <v>437844.1799007454</v>
       </c>
       <c r="H6" t="n">
-        <v>437239.4204887131</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="I6" t="n">
-        <v>437239.4204887132</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="J6" t="n">
-        <v>260816.2012961203</v>
+        <v>261420.9607081523</v>
       </c>
       <c r="K6" t="n">
-        <v>437239.420488713</v>
+        <v>437844.1799007453</v>
       </c>
       <c r="L6" t="n">
-        <v>437239.4204887129</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="M6" t="n">
-        <v>307597.1056497685</v>
+        <v>308201.8650618005</v>
       </c>
       <c r="N6" t="n">
-        <v>437239.4204887133</v>
+        <v>437844.179900745</v>
       </c>
       <c r="O6" t="n">
-        <v>437239.4204887129</v>
+        <v>437844.1799007451</v>
       </c>
       <c r="P6" t="n">
-        <v>437239.4204887128</v>
+        <v>437844.1799007453</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>360.6029861082224</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>157.1814111170982</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>85.56239278891854</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>123.9289676594878</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>272.3278948523656</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359948</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>1.091280493946869</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.105142606069</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>14.59587156758241</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-4.097520389930406e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839198</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624588</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307157</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>601.9369970342514</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>427.0116978485627</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>654.305551822328</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.017272842907</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>766.6741794499121</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552622</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>60.63067429788153</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>685.3008529699235</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>684.7056784113256</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>470.4443441954251</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493436</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552622</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>89.2320208001448</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>727.3874636142344</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37703,7 +37703,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443223</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37782,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200601</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>657.383164781064</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
